--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D5" t="n">
         <v>92</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" t="n">
         <v>94</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D7" t="n">
         <v>94</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D13" t="n">
         <v>103</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D14" t="n">
         <v>103</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D15" t="n">
         <v>99</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" t="n">
         <v>95</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2026</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>1068</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>554</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>154</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -484,16 +484,16 @@
         <v>226</v>
       </c>
       <c r="D2" t="n">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="E2" t="n">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="F2" t="n">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="G2" t="n">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -519,16 +519,16 @@
         <v>142</v>
       </c>
       <c r="D3" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E3" t="n">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F3" t="n">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G3" t="n">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -554,16 +554,16 @@
         <v>79</v>
       </c>
       <c r="D4" t="n">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="E4" t="n">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="F4" t="n">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G4" t="n">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -589,16 +589,16 @@
         <v>67</v>
       </c>
       <c r="D5" t="n">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E5" t="n">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F5" t="n">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G5" t="n">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -624,16 +624,16 @@
         <v>101</v>
       </c>
       <c r="D6" t="n">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E6" t="n">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="F6" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G6" t="n">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -659,16 +659,16 @@
         <v>149</v>
       </c>
       <c r="D7" t="n">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E7" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F7" t="n">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G7" t="n">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -694,16 +694,16 @@
         <v>174</v>
       </c>
       <c r="D8" t="n">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E8" t="n">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F8" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G8" t="n">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -729,16 +729,16 @@
         <v>161</v>
       </c>
       <c r="D9" t="n">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="E9" t="n">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F9" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="G9" t="n">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -764,16 +764,16 @@
         <v>126</v>
       </c>
       <c r="D10" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E10" t="n">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="F10" t="n">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="G10" t="n">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -799,16 +799,16 @@
         <v>98</v>
       </c>
       <c r="D11" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E11" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F11" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G11" t="n">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -869,16 +869,16 @@
         <v>139</v>
       </c>
       <c r="D13" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E13" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F13" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         <v>183</v>
       </c>
       <c r="D14" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E14" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G14" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -939,16 +939,16 @@
         <v>199</v>
       </c>
       <c r="D15" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E15" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F15" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G15" t="n">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -974,16 +974,16 @@
         <v>177</v>
       </c>
       <c r="D16" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G16" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1009,16 +1009,16 @@
         <v>139</v>
       </c>
       <c r="D17" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F17" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G17" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>

--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,63 +425,114 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B08F7BHDLY</t>
-        </is>
+      <c r="A2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B2" t="n">
+        <v>226.8803174107832</v>
       </c>
       <c r="C2" t="n">
-        <v>226</v>
+        <v>290.1606492511252</v>
       </c>
       <c r="D2" t="n">
         <v>145</v>
@@ -495,28 +546,61 @@
       <c r="G2" t="n">
         <v>206</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>82</v>
+      </c>
+      <c r="I2" t="n">
+        <v>56.55172413793104</v>
+      </c>
+      <c r="J2" t="n">
+        <v>62</v>
+      </c>
+      <c r="K2" t="n">
+        <v>37.57575757575757</v>
+      </c>
+      <c r="L2" t="n">
+        <v>45</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.72527472527473</v>
+      </c>
+      <c r="N2" t="n">
+        <v>21</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10.19417475728155</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>A520I AC</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="R2" t="b">
         <v>0</v>
       </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B08F7BHDLY</t>
-        </is>
+      <c r="A3" t="n">
+        <v>142</v>
+      </c>
+      <c r="B3" t="n">
+        <v>142.4663645880794</v>
       </c>
       <c r="C3" t="n">
-        <v>142</v>
+        <v>212.4357499048709</v>
       </c>
       <c r="D3" t="n">
         <v>110</v>
@@ -530,28 +614,61 @@
       <c r="G3" t="n">
         <v>169</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>32</v>
+      </c>
+      <c r="I3" t="n">
+        <v>29.09090909090909</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.9375</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-2.068965517241379</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-27</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-15.97633136094675</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>A520I AC</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="R3" t="b">
         <v>0</v>
       </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B08F7BHDLY</t>
-        </is>
+      <c r="A4" t="n">
+        <v>79</v>
+      </c>
+      <c r="B4" t="n">
+        <v>78.99229364395755</v>
       </c>
       <c r="C4" t="n">
-        <v>79</v>
+        <v>153.602623643265</v>
       </c>
       <c r="D4" t="n">
         <v>108</v>
@@ -565,28 +682,61 @@
       <c r="G4" t="n">
         <v>165</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>-29</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-26.85185185185185</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-47</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-37.3015873015873</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-43.97163120567376</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-86</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-52.12121212121212</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>A520I AC</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="R4" t="b">
         <v>0</v>
       </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B08F7BHDLY</t>
-        </is>
+      <c r="A5" t="n">
+        <v>67</v>
+      </c>
+      <c r="B5" t="n">
+        <v>67.0256863280235</v>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>134.0438406156379</v>
       </c>
       <c r="D5" t="n">
         <v>107</v>
@@ -600,28 +750,61 @@
       <c r="G5" t="n">
         <v>167</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>-40</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-37.38317757009346</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-59</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-46.82539682539682</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-52.8169014084507</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-100</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-59.88023952095808</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>A520I AC</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="R5" t="b">
         <v>0</v>
       </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B08F7BHDLY</t>
-        </is>
+      <c r="A6" t="n">
+        <v>102</v>
+      </c>
+      <c r="B6" t="n">
+        <v>101.5613645413807</v>
       </c>
       <c r="C6" t="n">
-        <v>101</v>
+        <v>170.1445881019701</v>
       </c>
       <c r="D6" t="n">
         <v>107</v>
@@ -635,28 +818,61 @@
       <c r="G6" t="n">
         <v>173</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-4.672897196261682</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-25</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-19.68503937007874</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-43</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-29.6551724137931</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-71</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-41.04046242774567</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>A520I AC</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="R6" t="b">
         <v>0</v>
       </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B08F7BHDLY</t>
-        </is>
+      <c r="A7" t="n">
+        <v>149</v>
+      </c>
+      <c r="B7" t="n">
+        <v>149.2478710378111</v>
       </c>
       <c r="C7" t="n">
-        <v>149</v>
+        <v>215.4118015942447</v>
       </c>
       <c r="D7" t="n">
         <v>106</v>
@@ -670,28 +886,61 @@
       <c r="G7" t="n">
         <v>168</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>43</v>
+      </c>
+      <c r="I7" t="n">
+        <v>40.56603773584906</v>
+      </c>
+      <c r="J7" t="n">
+        <v>24</v>
+      </c>
+      <c r="K7" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.929577464788732</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-19</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-11.30952380952381</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>A520I AC</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="R7" t="b">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B08F7BHDLY</t>
-        </is>
+      <c r="A8" t="n">
+        <v>174</v>
+      </c>
+      <c r="B8" t="n">
+        <v>174.1702335239929</v>
       </c>
       <c r="C8" t="n">
-        <v>174</v>
+        <v>236.6824063228607</v>
       </c>
       <c r="D8" t="n">
         <v>107</v>
@@ -705,28 +954,61 @@
       <c r="G8" t="n">
         <v>173</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>67</v>
+      </c>
+      <c r="I8" t="n">
+        <v>62.61682242990653</v>
+      </c>
+      <c r="J8" t="n">
+        <v>48</v>
+      </c>
+      <c r="K8" t="n">
+        <v>38.09523809523809</v>
+      </c>
+      <c r="L8" t="n">
+        <v>29</v>
+      </c>
+      <c r="M8" t="n">
+        <v>20</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.5780346820809248</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>A520I AC</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="R8" t="b">
         <v>0</v>
       </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B08F7BHDLY</t>
-        </is>
+      <c r="A9" t="n">
+        <v>162</v>
+      </c>
+      <c r="B9" t="n">
+        <v>161.7594668737208</v>
       </c>
       <c r="C9" t="n">
-        <v>161</v>
+        <v>232.5676870359459</v>
       </c>
       <c r="D9" t="n">
         <v>107</v>
@@ -740,28 +1022,61 @@
       <c r="G9" t="n">
         <v>173</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>55</v>
+      </c>
+      <c r="I9" t="n">
+        <v>51.4018691588785</v>
+      </c>
+      <c r="J9" t="n">
+        <v>36</v>
+      </c>
+      <c r="K9" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="L9" t="n">
+        <v>17</v>
+      </c>
+      <c r="M9" t="n">
+        <v>11.72413793103448</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-6.358381502890173</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>A520I AC</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="R9" t="b">
         <v>0</v>
       </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B08F7BHDLY</t>
-        </is>
+      <c r="A10" t="n">
+        <v>126</v>
+      </c>
+      <c r="B10" t="n">
+        <v>126.0014515559578</v>
       </c>
       <c r="C10" t="n">
-        <v>126</v>
+        <v>188.2676659185858</v>
       </c>
       <c r="D10" t="n">
         <v>105</v>
@@ -775,28 +1090,61 @@
       <c r="G10" t="n">
         <v>168</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>21</v>
+      </c>
+      <c r="I10" t="n">
+        <v>20</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.612903225806452</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-15</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-10.63829787234043</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-42</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-25</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>A520I AC</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="R10" t="b">
         <v>0</v>
       </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B08F7BHDLY</t>
-        </is>
+      <c r="A11" t="n">
+        <v>98</v>
+      </c>
+      <c r="B11" t="n">
+        <v>97.78569534015612</v>
       </c>
       <c r="C11" t="n">
-        <v>98</v>
+        <v>158.4234206200019</v>
       </c>
       <c r="D11" t="n">
         <v>105</v>
@@ -810,28 +1158,61 @@
       <c r="G11" t="n">
         <v>169</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>-7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-6.666666666666667</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-26</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-20.96774193548387</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-43</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-30.49645390070922</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-71</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-42.01183431952663</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>A520I AC</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="R11" t="b">
         <v>0</v>
       </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B08F7BHDLY</t>
-        </is>
+      <c r="A12" t="n">
+        <v>102</v>
+      </c>
+      <c r="B12" t="n">
+        <v>102.3718300885025</v>
       </c>
       <c r="C12" t="n">
-        <v>102</v>
+        <v>169.8046070234435</v>
       </c>
       <c r="D12" t="n">
         <v>104</v>
@@ -845,28 +1226,61 @@
       <c r="G12" t="n">
         <v>172</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1.923076923076923</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-22</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-17.74193548387097</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-41</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-28.67132867132867</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-70</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-40.69767441860465</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>A520I AC</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="R12" t="b">
         <v>0</v>
       </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B08F7BHDLY</t>
-        </is>
+      <c r="A13" t="n">
+        <v>140</v>
+      </c>
+      <c r="B13" t="n">
+        <v>139.9012582011509</v>
       </c>
       <c r="C13" t="n">
-        <v>139</v>
+        <v>206.0716479619723</v>
       </c>
       <c r="D13" t="n">
         <v>105</v>
@@ -880,28 +1294,61 @@
       <c r="G13" t="n">
         <v>174</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="J13" t="n">
+        <v>15</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-2.777777777777778</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-34</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-19.54022988505747</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>A520I AC</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="R13" t="b">
         <v>0</v>
       </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B08F7BHDLY</t>
-        </is>
+      <c r="A14" t="n">
+        <v>183</v>
+      </c>
+      <c r="B14" t="n">
+        <v>183.4748763807255</v>
       </c>
       <c r="C14" t="n">
-        <v>183</v>
+        <v>252.3962197496173</v>
       </c>
       <c r="D14" t="n">
         <v>102</v>
@@ -915,28 +1362,61 @@
       <c r="G14" t="n">
         <v>168</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>81</v>
+      </c>
+      <c r="I14" t="n">
+        <v>79.41176470588235</v>
+      </c>
+      <c r="J14" t="n">
+        <v>62</v>
+      </c>
+      <c r="K14" t="n">
+        <v>51.2396694214876</v>
+      </c>
+      <c r="L14" t="n">
+        <v>44</v>
+      </c>
+      <c r="M14" t="n">
+        <v>31.6546762589928</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15</v>
+      </c>
+      <c r="O14" t="n">
+        <v>8.928571428571429</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>A520I AC</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="R14" t="b">
         <v>0</v>
       </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B08F7BHDLY</t>
-        </is>
+      <c r="A15" t="n">
+        <v>200</v>
+      </c>
+      <c r="B15" t="n">
+        <v>199.6453277855319</v>
       </c>
       <c r="C15" t="n">
-        <v>199</v>
+        <v>263.490019972342</v>
       </c>
       <c r="D15" t="n">
         <v>96</v>
@@ -950,28 +1430,61 @@
       <c r="G15" t="n">
         <v>166</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>104</v>
+      </c>
+      <c r="I15" t="n">
+        <v>108.3333333333333</v>
+      </c>
+      <c r="J15" t="n">
+        <v>84</v>
+      </c>
+      <c r="K15" t="n">
+        <v>72.41379310344827</v>
+      </c>
+      <c r="L15" t="n">
+        <v>65</v>
+      </c>
+      <c r="M15" t="n">
+        <v>48.14814814814815</v>
+      </c>
+      <c r="N15" t="n">
+        <v>34</v>
+      </c>
+      <c r="O15" t="n">
+        <v>20.48192771084337</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>A520I AC</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="R15" t="b">
         <v>0</v>
       </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B08F7BHDLY</t>
-        </is>
+      <c r="A16" t="n">
+        <v>177</v>
+      </c>
+      <c r="B16" t="n">
+        <v>177.4561371950317</v>
       </c>
       <c r="C16" t="n">
-        <v>177</v>
+        <v>242.779073908902</v>
       </c>
       <c r="D16" t="n">
         <v>94</v>
@@ -985,28 +1498,61 @@
       <c r="G16" t="n">
         <v>161</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>83</v>
+      </c>
+      <c r="I16" t="n">
+        <v>88.29787234042553</v>
+      </c>
+      <c r="J16" t="n">
+        <v>64</v>
+      </c>
+      <c r="K16" t="n">
+        <v>56.63716814159292</v>
+      </c>
+      <c r="L16" t="n">
+        <v>45</v>
+      </c>
+      <c r="M16" t="n">
+        <v>34.09090909090909</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>9.937888198757763</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>A520I AC</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="R16" t="b">
         <v>0</v>
       </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B08F7BHDLY</t>
-        </is>
+      <c r="A17" t="n">
+        <v>140</v>
+      </c>
+      <c r="B17" t="n">
+        <v>140.0729758092906</v>
       </c>
       <c r="C17" t="n">
-        <v>139</v>
+        <v>213.0484548618981</v>
       </c>
       <c r="D17" t="n">
         <v>93</v>
@@ -1020,13 +1566,50 @@
       <c r="G17" t="n">
         <v>160</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>47</v>
+      </c>
+      <c r="I17" t="n">
+        <v>50.53763440860215</v>
+      </c>
+      <c r="J17" t="n">
+        <v>28</v>
+      </c>
+      <c r="K17" t="n">
+        <v>25</v>
+      </c>
+      <c r="L17" t="n">
+        <v>9</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6.870229007633588</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-20</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>A520I AC</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="R17" t="b">
         <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2262</t>
+          <t>2268</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1099</t>
+          <t>1102</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1759,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>515</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1771,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>227</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -529,10 +529,10 @@
         <v>227</v>
       </c>
       <c r="B2" t="n">
-        <v>226.8803174107832</v>
+        <v>226.8803174119259</v>
       </c>
       <c r="C2" t="n">
-        <v>290.1606492511252</v>
+        <v>289.9789934490602</v>
       </c>
       <c r="D2" t="n">
         <v>145</v>
@@ -597,10 +597,10 @@
         <v>142</v>
       </c>
       <c r="B3" t="n">
-        <v>142.4663645880794</v>
+        <v>142.4663645889878</v>
       </c>
       <c r="C3" t="n">
-        <v>212.4357499048709</v>
+        <v>209.3704880750131</v>
       </c>
       <c r="D3" t="n">
         <v>110</v>
@@ -665,10 +665,10 @@
         <v>79</v>
       </c>
       <c r="B4" t="n">
-        <v>78.99229364395755</v>
+        <v>78.99229364484511</v>
       </c>
       <c r="C4" t="n">
-        <v>153.602623643265</v>
+        <v>149.6102186521511</v>
       </c>
       <c r="D4" t="n">
         <v>108</v>
@@ -733,10 +733,10 @@
         <v>67</v>
       </c>
       <c r="B5" t="n">
-        <v>67.0256863280235</v>
+        <v>67.02568632891641</v>
       </c>
       <c r="C5" t="n">
-        <v>134.0438406156379</v>
+        <v>133.68172021271</v>
       </c>
       <c r="D5" t="n">
         <v>107</v>
@@ -801,10 +801,10 @@
         <v>102</v>
       </c>
       <c r="B6" t="n">
-        <v>101.5613645413807</v>
+        <v>101.5613645422938</v>
       </c>
       <c r="C6" t="n">
-        <v>170.1445881019701</v>
+        <v>170.9562643352201</v>
       </c>
       <c r="D6" t="n">
         <v>107</v>
@@ -869,10 +869,10 @@
         <v>149</v>
       </c>
       <c r="B7" t="n">
-        <v>149.2478710378111</v>
+        <v>149.2478710387076</v>
       </c>
       <c r="C7" t="n">
-        <v>215.4118015942447</v>
+        <v>221.5569866389373</v>
       </c>
       <c r="D7" t="n">
         <v>106</v>
@@ -937,10 +937,10 @@
         <v>174</v>
       </c>
       <c r="B8" t="n">
-        <v>174.1702335239929</v>
+        <v>174.170233524911</v>
       </c>
       <c r="C8" t="n">
-        <v>236.6824063228607</v>
+        <v>240.0173146117002</v>
       </c>
       <c r="D8" t="n">
         <v>107</v>
@@ -1005,10 +1005,10 @@
         <v>162</v>
       </c>
       <c r="B9" t="n">
-        <v>161.7594668737208</v>
+        <v>161.7594668746407</v>
       </c>
       <c r="C9" t="n">
-        <v>232.5676870359459</v>
+        <v>225.9234317697544</v>
       </c>
       <c r="D9" t="n">
         <v>107</v>
@@ -1073,10 +1073,10 @@
         <v>126</v>
       </c>
       <c r="B10" t="n">
-        <v>126.0014515559578</v>
+        <v>126.0014515568548</v>
       </c>
       <c r="C10" t="n">
-        <v>188.2676659185858</v>
+        <v>186.9581916602214</v>
       </c>
       <c r="D10" t="n">
         <v>105</v>
@@ -1141,10 +1141,10 @@
         <v>98</v>
       </c>
       <c r="B11" t="n">
-        <v>97.78569534015612</v>
+        <v>97.78569534105674</v>
       </c>
       <c r="C11" t="n">
-        <v>158.4234206200019</v>
+        <v>167.1784643223632</v>
       </c>
       <c r="D11" t="n">
         <v>105</v>
@@ -1209,10 +1209,10 @@
         <v>102</v>
       </c>
       <c r="B12" t="n">
-        <v>102.3718300885025</v>
+        <v>102.3718300894133</v>
       </c>
       <c r="C12" t="n">
-        <v>169.8046070234435</v>
+        <v>172.9655992266302</v>
       </c>
       <c r="D12" t="n">
         <v>104</v>
@@ -1277,10 +1277,10 @@
         <v>140</v>
       </c>
       <c r="B13" t="n">
-        <v>139.9012582011509</v>
+        <v>139.9012582020721</v>
       </c>
       <c r="C13" t="n">
-        <v>206.0716479619723</v>
+        <v>209.485313384471</v>
       </c>
       <c r="D13" t="n">
         <v>105</v>
@@ -1345,10 +1345,10 @@
         <v>183</v>
       </c>
       <c r="B14" t="n">
-        <v>183.4748763807255</v>
+        <v>183.4748763816181</v>
       </c>
       <c r="C14" t="n">
-        <v>252.3962197496173</v>
+        <v>251.6327370920192</v>
       </c>
       <c r="D14" t="n">
         <v>102</v>
@@ -1413,10 +1413,10 @@
         <v>200</v>
       </c>
       <c r="B15" t="n">
-        <v>199.6453277855319</v>
+        <v>199.6453277863981</v>
       </c>
       <c r="C15" t="n">
-        <v>263.490019972342</v>
+        <v>265.560033302711</v>
       </c>
       <c r="D15" t="n">
         <v>96</v>
@@ -1481,10 +1481,10 @@
         <v>177</v>
       </c>
       <c r="B16" t="n">
-        <v>177.4561371950317</v>
+        <v>177.4561371958789</v>
       </c>
       <c r="C16" t="n">
-        <v>242.779073908902</v>
+        <v>246.9059913899738</v>
       </c>
       <c r="D16" t="n">
         <v>94</v>
@@ -1549,10 +1549,10 @@
         <v>140</v>
       </c>
       <c r="B17" t="n">
-        <v>140.0729758092906</v>
+        <v>140.0729758101327</v>
       </c>
       <c r="C17" t="n">
-        <v>213.0484548618981</v>
+        <v>211.0207922993562</v>
       </c>
       <c r="D17" t="n">
         <v>93</v>

--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" t="n">
         <v>192</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" t="n">
         <v>162</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D6" t="n">
         <v>148</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D7" t="n">
         <v>142</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" t="n">
         <v>133</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D9" t="n">
         <v>133</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D12" t="n">
         <v>122</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D13" t="n">
         <v>122</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D14" t="n">
         <v>119</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2317</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>1233</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>659</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>172</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" t="n">
         <v>162</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" t="n">
         <v>152</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D12" t="n">
         <v>122</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D14" t="n">
         <v>119</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" t="n">
         <v>116</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2315</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>1230</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>657</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>172</v>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D2" t="n">
+        <v>170</v>
+      </c>
+      <c r="E2" t="n">
         <v>192</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>212</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>227</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>248</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>A520I AC</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>166</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>162</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>185</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>204</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>232</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>A520I AC</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>162</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>152</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>176</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>196</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>225</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>A520I AC</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>156</v>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E5" t="n">
         <v>142</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>164</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>184</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>214</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>A520I AC</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>152</v>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D6" t="n">
+        <v>151</v>
+      </c>
+      <c r="E6" t="n">
         <v>148</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>172</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>193</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>225</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>A520I AC</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>141</v>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D7" t="n">
+        <v>140</v>
+      </c>
+      <c r="E7" t="n">
         <v>142</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>166</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>186</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>217</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>A520I AC</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>134</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>133</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>156</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>178</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>211</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>A520I AC</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>146</v>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D9" t="n">
+        <v>145</v>
+      </c>
+      <c r="E9" t="n">
         <v>133</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>158</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>180</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>215</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>A520I AC</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>164</v>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D10" t="n">
+        <v>163</v>
+      </c>
+      <c r="E10" t="n">
         <v>129</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>152</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>173</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>205</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>A520I AC</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>130</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>125</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>148</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>169</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>203</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>A520I AC</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>158</v>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D12" t="n">
+        <v>156</v>
+      </c>
+      <c r="E12" t="n">
         <v>122</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>146</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>168</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>204</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>A520I AC</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>135</v>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D13" t="n">
+        <v>134</v>
+      </c>
+      <c r="E13" t="n">
         <v>122</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>145</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>169</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>206</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>A520I AC</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>124</v>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D14" t="n">
+        <v>123</v>
+      </c>
+      <c r="E14" t="n">
         <v>119</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>142</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>163</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>196</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>A520I AC</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>133</v>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D15" t="n">
+        <v>132</v>
+      </c>
+      <c r="E15" t="n">
         <v>116</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>138</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>161</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>197</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>A520I AC</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>119</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>111</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>133</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>155</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>189</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>A520I AC</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>122</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>114</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>136</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>158</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>192</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>A520I AC</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1152,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2315</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1223</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>652</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>170</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E2" t="n">
         <v>192</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E3" t="n">
         <v>162</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E4" t="n">
         <v>152</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E5" t="n">
         <v>142</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E6" t="n">
         <v>148</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E7" t="n">
         <v>142</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E9" t="n">
         <v>133</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E10" t="n">
         <v>129</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E12" t="n">
         <v>122</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E13" t="n">
         <v>122</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E14" t="n">
         <v>119</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E15" t="n">
         <v>116</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2317</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1223</t>
+          <t>1232</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>658</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>173</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E3" t="n">
         <v>162</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E4" t="n">
         <v>152</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E5" t="n">
         <v>142</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E6" t="n">
         <v>148</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E7" t="n">
         <v>142</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E8" t="n">
         <v>133</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E10" t="n">
         <v>129</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E12" t="n">
         <v>122</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E13" t="n">
         <v>122</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E14" t="n">
         <v>119</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E15" t="n">
         <v>116</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2330</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>1240</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>662</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E2" t="n">
         <v>192</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E3" t="n">
         <v>162</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E4" t="n">
         <v>152</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E5" t="n">
         <v>142</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E6" t="n">
         <v>148</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E7" t="n">
         <v>142</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E8" t="n">
         <v>133</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" t="n">
         <v>133</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E10" t="n">
         <v>129</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E12" t="n">
         <v>122</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E13" t="n">
         <v>122</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E14" t="n">
         <v>119</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E15" t="n">
         <v>116</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2300</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>1222</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>652</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>170</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="E2" t="n">
         <v>192</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="E3" t="n">
         <v>162</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="E4" t="n">
         <v>152</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="E5" t="n">
         <v>142</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="E6" t="n">
         <v>148</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="E7" t="n">
         <v>142</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="E8" t="n">
         <v>133</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E9" t="n">
         <v>133</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="E10" t="n">
         <v>129</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E11" t="n">
         <v>125</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="E12" t="n">
         <v>122</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="E13" t="n">
         <v>122</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E14" t="n">
         <v>119</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E15" t="n">
         <v>116</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E16" t="n">
         <v>111</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E17" t="n">
         <v>114</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2024-12-29</t>
+          <t>2022-12-25 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>303</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>133</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13957 units</t>
+          <t>14098 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2574</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1222</t>
+          <t>1440</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>771</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>203</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="E2" t="n">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="G2" t="n">
-        <v>227</v>
+        <v>124</v>
       </c>
       <c r="H2" t="n">
-        <v>248</v>
+        <v>141</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="E3" t="n">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="G3" t="n">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="H3" t="n">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="E4" t="n">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="F4" t="n">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="G4" t="n">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="H4" t="n">
-        <v>225</v>
+        <v>158</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="E5" t="n">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="F5" t="n">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="G5" t="n">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="H5" t="n">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="E6" t="n">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="F6" t="n">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="G6" t="n">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="H6" t="n">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="E7" t="n">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="F7" t="n">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="G7" t="n">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="H7" t="n">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="E8" t="n">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="G8" t="n">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="H8" t="n">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E9" t="n">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="G9" t="n">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="H9" t="n">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E10" t="n">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="F10" t="n">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="G10" t="n">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="H10" t="n">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E11" t="n">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="F11" t="n">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="G11" t="n">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="H11" t="n">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="E12" t="n">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="F12" t="n">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="G12" t="n">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="H12" t="n">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="E13" t="n">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F13" t="n">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="G13" t="n">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="H13" t="n">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E14" t="n">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="F14" t="n">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="G14" t="n">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="H14" t="n">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E15" t="n">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="F15" t="n">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="G15" t="n">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="H15" t="n">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E16" t="n">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="F16" t="n">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="G16" t="n">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="H16" t="n">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E17" t="n">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="F17" t="n">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="G17" t="n">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="H17" t="n">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-05</t>
+          <t>2022-12-25 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>304</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14098 units</t>
+          <t>14184 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2574</t>
+          <t>1859</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>955</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>476</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-03-09</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>106</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" t="n">
         <v>104</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" t="n">
         <v>100</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E12" t="n">
         <v>94</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E17" t="n">
         <v>86</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1859</t>
+          <t>1857</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>955</t>
+          <t>953</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>474</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-05-04</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E4" t="n">
         <v>104</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" t="n">
         <v>104</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E7" t="n">
         <v>102</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E8" t="n">
         <v>98</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E9" t="n">
         <v>100</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E10" t="n">
         <v>98</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" t="n">
         <v>94</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E13" t="n">
         <v>93</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E14" t="n">
         <v>92</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E15" t="n">
         <v>87</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E16" t="n">
         <v>86</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E17" t="n">
         <v>86</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>1968</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>953</t>
+          <t>1007</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>497</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>142</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" t="n">
         <v>104</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E5" t="n">
         <v>103</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" t="n">
         <v>104</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E8" t="n">
         <v>98</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E9" t="n">
         <v>100</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E14" t="n">
         <v>92</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E15" t="n">
         <v>87</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" t="n">
         <v>86</v>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>1010</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>143</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E4" t="n">
         <v>104</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E5" t="n">
         <v>103</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E6" t="n">
         <v>104</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E7" t="n">
         <v>102</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E8" t="n">
         <v>98</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E9" t="n">
         <v>100</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="E10" t="n">
         <v>98</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E12" t="n">
         <v>94</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E13" t="n">
         <v>93</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E14" t="n">
         <v>92</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E15" t="n">
         <v>87</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="E16" t="n">
         <v>86</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="E17" t="n">
         <v>86</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-12</t>
+          <t>2022-12-25 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>305</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>134</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>133</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14184 units</t>
+          <t>14491 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1803</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>972</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>465</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>133</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-05-11</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E4" t="n">
         <v>104</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E5" t="n">
         <v>103</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" t="n">
         <v>104</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E10" t="n">
         <v>98</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E12" t="n">
         <v>94</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E16" t="n">
         <v>86</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" t="n">
         <v>86</v>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>131</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14491 units</t>
+          <t>14199 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1803</t>
+          <t>1806</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>974</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>468</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" t="n">
         <v>103</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E6" t="n">
         <v>104</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" t="n">
         <v>94</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E16" t="n">
         <v>86</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1807</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>467</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E4" t="n">
         <v>104</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E5" t="n">
         <v>103</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E6" t="n">
         <v>104</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" t="n">
         <v>98</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E12" t="n">
         <v>94</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1807</t>
+          <t>1799</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>464</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F2" t="n">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="H2" t="n">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F3" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G3" t="n">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="H3" t="n">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E4" t="n">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F4" t="n">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="H4" t="n">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>106</v>
+      </c>
+      <c r="E5" t="n">
+        <v>87</v>
+      </c>
+      <c r="F5" t="n">
         <v>101</v>
       </c>
-      <c r="E5" t="n">
-        <v>103</v>
-      </c>
-      <c r="F5" t="n">
-        <v>121</v>
-      </c>
       <c r="G5" t="n">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="H5" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E6" t="n">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F6" t="n">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G6" t="n">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="H6" t="n">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E7" t="n">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F7" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="G7" t="n">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H7" t="n">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F8" t="n">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="G8" t="n">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="H8" t="n">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F9" t="n">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="G9" t="n">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H9" t="n">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E10" t="n">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F10" t="n">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="H10" t="n">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E11" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F11" t="n">
+        <v>96</v>
+      </c>
+      <c r="G11" t="n">
         <v>112</v>
       </c>
-      <c r="G11" t="n">
-        <v>130</v>
-      </c>
       <c r="H11" t="n">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E12" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F12" t="n">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G12" t="n">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="H12" t="n">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E13" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F13" t="n">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G13" t="n">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="H13" t="n">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E14" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F14" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G14" t="n">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="H14" t="n">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E15" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F15" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="G15" t="n">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="H15" t="n">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E16" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F16" t="n">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G16" t="n">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="H16" t="n">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E17" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F17" t="n">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G17" t="n">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="H17" t="n">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-19</t>
+          <t>2022-12-25 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>304</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>129</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14199 units</t>
+          <t>14326 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>1588</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>836</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>407</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>113</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E3" t="n">
         <v>82</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E4" t="n">
         <v>86</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E5" t="n">
         <v>87</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E9" t="n">
         <v>85</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E10" t="n">
         <v>84</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E11" t="n">
         <v>80</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E14" t="n">
         <v>80</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E15" t="n">
         <v>75</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E16" t="n">
         <v>75</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E17" t="n">
         <v>74</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>1612</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>836</t>
+          <t>846</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>415</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>86</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
+++ b/Sufficient data/forecast_summary_B08F7BHDLY.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
         <v>82</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E4" t="n">
         <v>86</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E5" t="n">
         <v>87</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E9" t="n">
         <v>85</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E10" t="n">
         <v>84</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E11" t="n">
         <v>80</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" t="n">
         <v>80</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E15" t="n">
         <v>75</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E16" t="n">
         <v>75</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E17" t="n">
         <v>74</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1612</t>
+          <t>1588</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>836</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>407</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>83</t>
         </is>
       </c>
     </row>
